--- a/Phase-Out.xlsx
+++ b/Phase-Out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E12FEE-A888-4023-AFFA-62B83606AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B45D3-2013-4B64-AF16-7B08303D39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Fossil Shipping</t>
   </si>
   <si>
-    <t>100 EJ/yr</t>
-  </si>
-  <si>
     <t>3 GtCO2</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Cumulative AFOLU emissions (2020-2050)</t>
+  </si>
+  <si>
+    <t>100 EJ</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,13 +647,13 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -749,13 +749,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>

--- a/Phase-Out.xlsx
+++ b/Phase-Out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B45D3-2013-4B64-AF16-7B08303D39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F315ABA-17B3-40F4-81B4-252475E61F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Criterion name</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Residuals in 2050 (MtCO2e)</t>
-  </si>
-  <si>
-    <t>% share of sector`s residual emissions relative to its 2020 emissions</t>
   </si>
   <si>
     <t>Chemical</t>
@@ -122,9 +119,6 @@
     <t>Passenger cars</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative </t>
-  </si>
-  <si>
     <t>This sheet shows the phase out dates for some fossil commodities</t>
   </si>
   <si>
@@ -134,6 +128,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Disclaimer:</t>
     </r>
@@ -142,6 +137,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> The sector-specific requirements for key economic activities are derived from specific scenarios e.g IEA to provide additional guidelines on how activities need to transition at interim period on the way to net zero. The activity specific milestones are not available in all IPCC scenarios and there may be wide variations across  IPCC models. Therefore, the granularity that IEA provides for these indicators are useful, even though they may not align with the assumptions from the overall IPCC scenarios. </t>
     </r>
@@ -233,6 +229,9 @@
   <si>
     <t>100 EJ</t>
   </si>
+  <si>
+    <t>% share of residual emissions relative to its 2020 emissions</t>
+  </si>
 </sst>
 </file>
 
@@ -249,27 +248,31 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +293,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -307,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -330,11 +327,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,24 +388,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -376,11 +404,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +636,7 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -647,13 +682,13 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -681,13 +716,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -715,13 +750,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -749,13 +784,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -783,13 +818,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -817,13 +852,13 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -28495,9 +28530,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:G15"/>
+  <dimension ref="A3:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -28520,309 +28557,284 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1290</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>66</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E14" si="0">(D4-C4)/C4*100</f>
         <v>-94.883720930232556</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="18">
         <f t="shared" ref="F4:F14" si="1">D4</f>
         <v>66</v>
       </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G14" si="2">F4/C4</f>
-        <v>5.1162790697674418E-2</v>
+      <c r="G4" s="20">
+        <v>5.12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>8517</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>171</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>-97.992250792532587</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="G5" s="10">
-        <f t="shared" si="2"/>
-        <v>2.0077492074674182E-2</v>
+      <c r="G5" s="20">
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>13070.87</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>78.66</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>-99.398203792096467</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="18">
         <f t="shared" si="1"/>
         <v>78.66</v>
       </c>
-      <c r="G6" s="10">
-        <f t="shared" si="2"/>
-        <v>6.0179620790352896E-3</v>
+      <c r="G6" s="20">
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
+      <c r="A7" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>185</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>8</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>-95.675675675675677</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G7" s="10">
-        <f t="shared" si="2"/>
-        <v>4.3243243243243246E-2</v>
+      <c r="G7" s="20">
+        <v>4.32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>621</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>208</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>-66.505636070853456</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="18">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="G8" s="10">
-        <f t="shared" si="2"/>
-        <v>0.33494363929146537</v>
+      <c r="G8" s="20">
+        <v>33.49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>2334</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>79</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>-96.615252784918596</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" si="2"/>
-        <v>3.3847472150814052E-2</v>
+      <c r="G9" s="20">
+        <v>3.38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>2733</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>233</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>-91.474570069520681</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>8.5254299304793266E-2</v>
+      <c r="G10" s="20">
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
+      <c r="A11" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>7153</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>578</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>-91.919474346428075</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="18">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="2"/>
-        <v>8.080525653571928E-2</v>
+      <c r="G11" s="20">
+        <v>8.08</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
+      <c r="A12" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>5483</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>236</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>-95.695786977931789</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="2"/>
-        <v>4.3042130220682109E-2</v>
+      <c r="G12" s="20">
+        <v>4.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
+      <c r="A13" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>1721</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>178</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>-89.657176060429975</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="18">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="G13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10342823939570017</v>
+      <c r="G13" s="20">
+        <v>10.34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
+      <c r="A14" s="7" t="s">
+        <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2743</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>37</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>-98.651111921254099</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="2"/>
-        <v>1.3488880787458987E-2</v>
+      <c r="G14" s="20">
+        <v>1.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="13">
-        <f>F4+F6+F7+F11+F9+F5+F10</f>
-        <v>1213.6599999999999</v>
-      </c>
-      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28848,12 +28860,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>30</v>
+      <c r="A1" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -28878,15 +28890,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>31</v>
+      <c r="A2" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -28936,20 +28948,20 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -28974,20 +28986,20 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
+      <c r="A5" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>2030</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -29012,20 +29024,20 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
+      <c r="A6" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>2040</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>41</v>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -29050,20 +29062,20 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
+      <c r="A7" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>2045</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>42</v>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -29088,20 +29100,20 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
+      <c r="A8" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>2035</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>41</v>
+      <c r="E8" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -29126,20 +29138,20 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
+      <c r="A9" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>2025</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>45</v>
+      <c r="E9" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -29164,20 +29176,20 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>2025</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>45</v>
+      <c r="E10" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -29202,17 +29214,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
+      <c r="A11" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>47</v>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -29236,17 +29248,17 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
+      <c r="A12" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>

--- a/Phase-Out.xlsx
+++ b/Phase-Out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F315ABA-17B3-40F4-81B4-252475E61F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE9091-69AB-4E41-89B6-DAFCFEDD4349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Criterion name</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>Coal boilers</t>
-  </si>
-  <si>
-    <t>Fossil Aviation</t>
-  </si>
-  <si>
-    <t>Fossil Shipping</t>
   </si>
   <si>
     <t>3 GtCO2</t>
@@ -404,11 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -416,6 +405,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,13 +676,13 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -716,13 +710,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -750,13 +744,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -784,13 +778,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -818,13 +812,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -852,13 +846,13 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -28532,7 +28526,7 @@
   </sheetPr>
   <dimension ref="A3:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -28557,8 +28551,8 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>59</v>
+      <c r="G3" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28578,11 +28572,11 @@
         <f t="shared" ref="E4:E14" si="0">(D4-C4)/C4*100</f>
         <v>-94.883720930232556</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F14" si="1">D4</f>
         <v>66</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>5.12</v>
       </c>
     </row>
@@ -28603,11 +28597,11 @@
         <f t="shared" si="0"/>
         <v>-97.992250792532587</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -28628,11 +28622,11 @@
         <f t="shared" si="0"/>
         <v>-99.398203792096467</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>78.66</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>0.6</v>
       </c>
     </row>
@@ -28653,11 +28647,11 @@
         <f t="shared" si="0"/>
         <v>-95.675675675675677</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>4.32</v>
       </c>
     </row>
@@ -28678,11 +28672,11 @@
         <f t="shared" si="0"/>
         <v>-66.505636070853456</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>33.49</v>
       </c>
     </row>
@@ -28703,11 +28697,11 @@
         <f t="shared" si="0"/>
         <v>-96.615252784918596</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>3.38</v>
       </c>
     </row>
@@ -28732,7 +28726,7 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>8.5299999999999994</v>
       </c>
     </row>
@@ -28753,11 +28747,11 @@
         <f t="shared" si="0"/>
         <v>-91.919474346428075</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>8.08</v>
       </c>
     </row>
@@ -28778,11 +28772,11 @@
         <f t="shared" si="0"/>
         <v>-95.695786977931789</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>4.3</v>
       </c>
     </row>
@@ -28803,11 +28797,11 @@
         <f t="shared" si="0"/>
         <v>-89.657176060429975</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>10.34</v>
       </c>
     </row>
@@ -28828,11 +28822,11 @@
         <f t="shared" si="0"/>
         <v>-98.651111921254099</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <v>1.35</v>
       </c>
     </row>
@@ -28846,10 +28840,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28860,12 +28854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -28890,15 +28884,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -29214,17 +29208,11 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -29248,17 +29236,11 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -29365,7 +29347,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -29393,7 +29375,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -56917,62 +56899,6 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
